--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:41:46+00:00</t>
+    <t>2024-02-15T15:15:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -539,6 +539,22 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension:eclaire-recruitment-status</t>
+  </si>
+  <si>
+    <t>eclaire-recruitment-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-recruitment-status}
+</t>
+  </si>
+  <si>
+    <t>Statut du recrutement /Recruitment status</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le statut du recrutement</t>
   </si>
   <si>
     <t>ResearchStudy.extension:eclaire-description-summary-r5</t>
@@ -2347,7 +2363,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO107"/>
+  <dimension ref="A1:AO108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4033,7 +4049,7 @@
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
@@ -4047,9 +4063,11 @@
         <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4061,7 +4079,7 @@
         <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>80</v>
@@ -4127,19 +4145,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -4148,7 +4166,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -4159,10 +4177,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4173,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -4185,7 +4203,7 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
@@ -4230,16 +4248,16 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>182</v>
@@ -4248,13 +4266,13 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>80</v>
@@ -4263,7 +4281,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -4285,10 +4303,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -4300,7 +4318,7 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>185</v>
@@ -4308,16 +4326,14 @@
       <c r="M17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -4347,31 +4363,31 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -4380,7 +4396,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -4391,10 +4407,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4417,22 +4433,24 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
@@ -4474,19 +4492,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4506,26 +4524,24 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
@@ -4534,13 +4550,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4591,19 +4607,19 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>145</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4612,7 +4628,7 @@
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -4743,11 +4759,13 @@
         <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D21" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4757,29 +4775,25 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4815,19 +4829,19 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4848,7 +4862,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4866,7 +4880,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4879,23 +4893,25 @@
         <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4932,10 +4948,10 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
@@ -4944,7 +4960,7 @@
         <v>144</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4956,34 +4972,32 @@
         <v>102</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4992,10 +5006,10 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -5004,17 +5018,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -5051,19 +5065,19 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -5078,29 +5092,31 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5112,25 +5128,27 @@
         <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5178,53 +5196,53 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -5236,17 +5254,15 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5283,16 +5299,16 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>182</v>
@@ -5301,13 +5317,13 @@
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5316,7 +5332,7 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
@@ -5327,46 +5343,44 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5375,7 +5389,7 @@
         <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>80</v>
@@ -5390,52 +5404,52 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5446,10 +5460,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5457,7 +5471,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5466,25 +5480,25 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5494,7 +5508,7 @@
         <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>80</v>
@@ -5509,13 +5523,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5533,7 +5547,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5551,10 +5565,10 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5565,10 +5579,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5591,19 +5605,19 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5616,7 +5630,7 @@
         <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -5628,13 +5642,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5652,7 +5666,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5670,10 +5684,10 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -5684,10 +5698,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5710,18 +5724,20 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5733,7 +5749,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -5769,7 +5785,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5787,10 +5803,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -5801,10 +5817,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5827,16 +5843,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5850,7 +5866,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5886,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5898,16 +5914,16 @@
         <v>102</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -5918,10 +5934,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5941,18 +5957,20 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6001,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6010,19 +6028,19 @@
         <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -6033,21 +6051,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -6059,17 +6077,15 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6106,16 +6122,16 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>182</v>
@@ -6124,13 +6140,13 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6139,7 +6155,7 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -6150,21 +6166,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6173,19 +6189,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>139</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6223,40 +6239,40 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6283,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6293,24 +6309,22 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6354,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6363,7 +6377,7 @@
         <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>103</v>
@@ -6372,10 +6386,10 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6386,10 +6400,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6412,22 +6426,24 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="R35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6471,7 +6487,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6480,19 +6496,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6503,14 +6519,12 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6519,10 +6533,10 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6531,18 +6545,18 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>212</v>
+        <v>314</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6590,44 +6604,46 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>219</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6636,28 +6652,30 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>175</v>
+        <v>324</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6705,53 +6723,53 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>111</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6763,17 +6781,15 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6810,16 +6826,16 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>182</v>
@@ -6828,13 +6844,13 @@
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6843,7 +6859,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6854,46 +6870,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6902,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>80</v>
@@ -6917,52 +6931,52 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6973,10 +6987,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6984,7 +6998,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>90</v>
@@ -6993,25 +7007,25 @@
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7021,7 +7035,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -7036,13 +7050,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -7060,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7078,10 +7092,10 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>254</v>
+        <v>104</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -7092,10 +7106,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7118,19 +7132,19 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7143,7 +7157,7 @@
         <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>80</v>
@@ -7155,13 +7169,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7179,7 +7193,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7197,10 +7211,10 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
@@ -7211,10 +7225,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7237,18 +7251,20 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7260,7 +7276,7 @@
         <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>80</v>
@@ -7296,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7314,10 +7330,10 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7328,10 +7344,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7354,16 +7370,16 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7377,7 +7393,7 @@
         <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>80</v>
@@ -7413,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7425,16 +7441,16 @@
         <v>102</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>281</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7445,10 +7461,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7471,16 +7487,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7530,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7542,16 +7558,16 @@
         <v>102</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7562,10 +7578,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7579,7 +7595,7 @@
         <v>90</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7588,16 +7604,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7647,7 +7663,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7659,19 +7675,19 @@
         <v>102</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>111</v>
+        <v>321</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7679,10 +7695,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7693,10 +7709,10 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7705,16 +7721,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7764,31 +7780,31 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>341</v>
+        <v>111</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7796,14 +7812,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7822,20 +7838,18 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7883,7 +7897,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7895,19 +7909,19 @@
         <v>102</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7915,44 +7929,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7976,13 +7992,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -8000,42 +8016,42 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8043,31 +8059,31 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>245</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -8093,13 +8109,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -8117,10 +8133,10 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>90</v>
@@ -8132,27 +8148,27 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8166,7 +8182,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8175,16 +8191,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8210,11 +8226,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8232,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8247,16 +8265,16 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8264,10 +8282,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8278,7 +8296,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>91</v>
@@ -8290,16 +8308,16 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8325,11 +8343,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8347,13 +8365,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>102</v>
@@ -8362,16 +8380,16 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8379,10 +8397,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8396,7 +8414,7 @@
         <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>80</v>
@@ -8405,16 +8423,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8440,13 +8458,11 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8464,7 +8480,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8479,27 +8495,27 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8513,7 +8529,7 @@
         <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8522,16 +8538,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8557,13 +8573,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8572,16 +8588,16 @@
         <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8596,31 +8612,29 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8641,16 +8655,16 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8676,13 +8690,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8691,16 +8705,16 @@
         <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8715,29 +8729,31 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8746,27 +8762,29 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>175</v>
+        <v>403</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8776,7 +8794,7 @@
         <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>80</v>
@@ -8791,13 +8809,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8815,53 +8833,53 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8873,17 +8891,15 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8893,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>80</v>
@@ -8920,16 +8936,16 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>182</v>
@@ -8938,13 +8954,13 @@
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8953,7 +8969,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8964,14 +8980,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8987,23 +9003,21 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9039,19 +9053,19 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9063,16 +9077,16 @@
         <v>102</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -9083,10 +9097,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9097,7 +9111,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -9106,19 +9120,23 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9166,28 +9184,28 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -9198,21 +9216,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9224,17 +9242,15 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9271,16 +9287,16 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>182</v>
@@ -9289,13 +9305,13 @@
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9304,7 +9320,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -9315,21 +9331,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9338,23 +9354,21 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
+        <v>139</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>421</v>
+        <v>235</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9363,7 +9377,7 @@
         <v>80</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>80</v>
@@ -9390,40 +9404,40 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>425</v>
+        <v>187</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>427</v>
+        <v>104</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9434,10 +9448,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9460,18 +9474,20 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9480,7 +9496,7 @@
         <v>80</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>80</v>
@@ -9519,7 +9535,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9537,10 +9553,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9551,10 +9567,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9577,20 +9593,18 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9638,7 +9652,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9656,10 +9670,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9670,10 +9684,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9696,19 +9710,19 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9757,7 +9771,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9775,10 +9789,10 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9789,10 +9803,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9815,19 +9829,19 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>454</v>
+        <v>179</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9876,7 +9890,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9894,10 +9908,10 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9908,10 +9922,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9934,19 +9948,19 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>174</v>
+        <v>459</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9995,7 +10009,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10013,10 +10027,10 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -10027,14 +10041,12 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10043,10 +10055,10 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -10055,18 +10067,20 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10090,13 +10104,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10114,13 +10128,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>102</v>
@@ -10129,29 +10143,31 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>367</v>
+        <v>475</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>387</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10160,27 +10176,29 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>175</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10190,7 +10208,7 @@
         <v>80</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>80</v>
@@ -10205,13 +10223,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10229,53 +10247,53 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10287,17 +10305,15 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10307,7 +10323,7 @@
         <v>80</v>
       </c>
       <c r="S68" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="T68" t="s" s="2">
         <v>80</v>
@@ -10334,16 +10350,16 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>182</v>
@@ -10352,13 +10368,13 @@
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10367,7 +10383,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10378,14 +10394,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10401,23 +10417,21 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>406</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>407</v>
+        <v>139</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10453,19 +10467,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>411</v>
+        <v>187</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10477,16 +10491,16 @@
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>413</v>
+        <v>104</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10497,10 +10511,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10508,10 +10522,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10523,19 +10537,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>464</v>
+        <v>412</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>467</v>
+        <v>415</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10584,13 +10598,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>102</v>
@@ -10602,10 +10616,10 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>469</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>418</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10616,10 +10630,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10627,13 +10641,13 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10642,16 +10656,20 @@
         <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>480</v>
+        <v>179</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10699,13 +10717,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>102</v>
@@ -10714,16 +10732,16 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>111</v>
+        <v>475</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10731,10 +10749,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10745,25 +10763,25 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>174</v>
+        <v>485</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>175</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10814,22 +10832,22 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>177</v>
+        <v>484</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
@@ -10838,7 +10856,7 @@
         <v>111</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10846,21 +10864,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10872,17 +10890,15 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10919,16 +10935,16 @@
         <v>80</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>182</v>
@@ -10937,13 +10953,13 @@
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
@@ -10952,7 +10968,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10963,26 +10979,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>80</v>
@@ -10991,15 +11005,17 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>489</v>
+        <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>490</v>
+        <v>139</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11036,19 +11052,19 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11069,7 +11085,7 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -11083,7 +11099,7 @@
         <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>493</v>
@@ -11165,7 +11181,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11200,7 +11216,7 @@
         <v>497</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>498</v>
@@ -11282,7 +11298,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11317,7 +11333,7 @@
         <v>502</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>503</v>
@@ -11333,7 +11349,7 @@
         <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>80</v>
@@ -11399,7 +11415,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11434,9 +11450,11 @@
         <v>507</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11454,20 +11472,18 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11516,19 +11532,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>511</v>
+        <v>187</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11537,7 +11553,7 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11562,7 +11578,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11574,15 +11590,17 @@
         <v>91</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11637,22 +11655,22 @@
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>517</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>519</v>
+        <v>111</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11663,10 +11681,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11680,26 +11698,24 @@
         <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11748,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11760,19 +11776,19 @@
         <v>102</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>522</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>111</v>
+        <v>524</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11780,10 +11796,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11797,25 +11813,25 @@
         <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>245</v>
+        <v>526</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11841,10 +11857,10 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>80</v>
@@ -11865,7 +11881,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11880,16 +11896,16 @@
         <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11897,10 +11913,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11914,7 +11930,7 @@
         <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
@@ -11923,16 +11939,16 @@
         <v>91</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11958,13 +11974,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -11982,7 +11998,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11997,16 +12013,16 @@
         <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12014,10 +12030,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12028,7 +12044,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>91</v>
@@ -12037,19 +12053,19 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12075,13 +12091,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>80</v>
+        <v>542</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12099,13 +12115,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>102</v>
@@ -12117,13 +12133,13 @@
         <v>543</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12131,21 +12147,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>91</v>
@@ -12154,19 +12170,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N84" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12216,56 +12232,56 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>552</v>
+        <v>111</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>80</v>
@@ -12274,16 +12290,16 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12333,46 +12349,46 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>563</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>561</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12388,18 +12404,20 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>175</v>
+        <v>562</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12448,7 +12466,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>177</v>
+        <v>560</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12457,44 +12475,44 @@
         <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>111</v>
+        <v>566</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12506,17 +12524,15 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12553,16 +12569,16 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>182</v>
@@ -12571,13 +12587,13 @@
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12586,7 +12602,7 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12597,21 +12613,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12620,19 +12636,19 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>290</v>
+        <v>138</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>567</v>
+        <v>139</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12670,40 +12686,40 @@
         <v>80</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>295</v>
+        <v>102</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12714,10 +12730,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12731,7 +12747,7 @@
         <v>90</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>80</v>
@@ -12740,24 +12756,22 @@
         <v>91</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q89" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
         <v>80</v>
       </c>
@@ -12801,7 +12815,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12810,7 +12824,7 @@
         <v>90</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -12819,10 +12833,10 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12833,10 +12847,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12859,22 +12873,24 @@
         <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>572</v>
+        <v>306</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="R90" t="s" s="2">
         <v>80</v>
       </c>
@@ -12918,7 +12934,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>570</v>
+        <v>309</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12927,33 +12943,33 @@
         <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>574</v>
+        <v>311</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12967,7 +12983,7 @@
         <v>90</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12976,16 +12992,16 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>314</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13035,7 +13051,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13047,30 +13063,30 @@
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AO91" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>576</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13081,10 +13097,10 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -13093,16 +13109,16 @@
         <v>91</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="L92" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>587</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13152,42 +13168,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AN92" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="AL92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="AO92" t="s" s="2">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13198,10 +13214,10 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13210,16 +13226,16 @@
         <v>91</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>245</v>
+        <v>590</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>593</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13245,13 +13261,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13269,42 +13285,42 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>367</v>
+        <v>587</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13315,7 +13331,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13324,19 +13340,19 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>603</v>
+        <v>367</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13362,13 +13378,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13386,13 +13402,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>102</v>
@@ -13401,27 +13417,27 @@
         <v>103</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>104</v>
+        <v>371</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>605</v>
+        <v>372</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>80</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13444,15 +13460,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13501,7 +13519,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13516,16 +13534,16 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AN95" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13533,10 +13551,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13547,7 +13565,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13559,13 +13577,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>175</v>
+        <v>613</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13616,22 +13634,22 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>177</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>80</v>
@@ -13640,7 +13658,7 @@
         <v>111</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -13648,21 +13666,21 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13674,17 +13692,15 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13721,16 +13737,16 @@
         <v>80</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>182</v>
@@ -13739,13 +13755,13 @@
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -13754,7 +13770,7 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13765,14 +13781,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>615</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13785,26 +13801,24 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>616</v>
+        <v>139</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>617</v>
+        <v>235</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O98" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13840,19 +13854,19 @@
         <v>80</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13891,37 +13905,39 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O99" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13969,31 +13985,31 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>622</v>
+        <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14012,7 +14028,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -14027,7 +14043,7 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>625</v>
@@ -14036,7 +14052,7 @@
         <v>626</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14089,7 +14105,7 @@
         <v>624</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14104,10 +14120,10 @@
         <v>627</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>628</v>
@@ -14144,7 +14160,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>630</v>
@@ -14153,7 +14169,7 @@
         <v>631</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14221,10 +14237,10 @@
         <v>632</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>111</v>
+        <v>372</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>633</v>
@@ -14249,7 +14265,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -14261,7 +14277,7 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>607</v>
+        <v>179</v>
       </c>
       <c r="L102" t="s" s="2">
         <v>635</v>
@@ -14269,7 +14285,9 @@
       <c r="M102" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="N102" s="2"/>
+      <c r="N102" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14324,7 +14342,7 @@
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>102</v>
@@ -14342,7 +14360,7 @@
         <v>111</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>80</v>
+        <v>638</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
@@ -14350,10 +14368,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14364,7 +14382,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -14376,13 +14394,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>175</v>
+        <v>640</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>176</v>
+        <v>641</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14433,22 +14451,22 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>177</v>
+        <v>639</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>80</v>
@@ -14465,21 +14483,21 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -14491,17 +14509,15 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14538,16 +14554,16 @@
         <v>80</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>182</v>
@@ -14556,13 +14572,13 @@
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
@@ -14571,7 +14587,7 @@
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
@@ -14582,14 +14598,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>615</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14602,26 +14618,24 @@
         <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>616</v>
+        <v>139</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>617</v>
+        <v>235</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O105" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
       </c>
@@ -14657,19 +14671,19 @@
         <v>80</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>618</v>
+        <v>187</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14701,44 +14715,46 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>80</v>
+        <v>620</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O106" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14786,28 +14802,28 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
@@ -14818,10 +14834,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14844,16 +14860,16 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14879,13 +14895,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>648</v>
+        <v>80</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>649</v>
+        <v>80</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -14903,7 +14919,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14918,23 +14934,140 @@
         <v>103</v>
       </c>
       <c r="AK107" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AL107" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM107" t="s" s="2">
+      <c r="B108" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AN107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO107" t="s" s="2">
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO108" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO107">
+  <autoFilter ref="A1:AO108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14944,7 +15077,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T15:15:21+00:00</t>
+    <t>2024-02-15T16:03:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-add-ext-statut-recrutement/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:03:04+00:00</t>
+    <t>2024-02-15T16:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -551,7 +551,7 @@
 </t>
   </si>
   <si>
-    <t>Statut du recrutement /Recruitment status</t>
+    <t>Statut du recrutement / Recruitment status</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du projet ECLAIRE pour indiquer le statut du recrutement</t>
